--- a/src/main/resources/static/Team Information.xlsx
+++ b/src/main/resources/static/Team Information.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akin Akinbobola\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akin Akinbobola\IdeaProjects\dailybot\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C799270-AEF8-4A77-A221-3752F4595DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CE2806-1EFA-4024-9B5C-19A5042A8BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="185">
   <si>
     <t xml:space="preserve">SQUAD 1 - BUSINESS SOLUTIONS </t>
   </si>
@@ -826,16 +826,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,10 +1054,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1069,8 +1069,8 @@
     <col min="8" max="8" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
+    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
@@ -1101,8 +1101,8 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1126,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1150,7 +1150,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1174,7 +1174,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
@@ -1222,7 +1222,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1317,8 +1317,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1326,8 +1326,8 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
@@ -1338,7 +1338,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="7" t="s">
         <v>54</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="7" t="s">
         <v>66</v>
       </c>
@@ -1505,8 +1505,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1514,8 +1514,8 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
@@ -1526,7 +1526,7 @@
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="14" t="s">
         <v>72</v>
       </c>
@@ -1545,12 +1545,12 @@
       <c r="G22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="5" t="s">
         <v>76</v>
       </c>
@@ -1569,12 +1569,12 @@
       <c r="G23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="7" t="s">
         <v>81</v>
       </c>
@@ -1593,12 +1593,12 @@
       <c r="G24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="7" t="s">
         <v>85</v>
       </c>
@@ -1617,12 +1617,12 @@
       <c r="G25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="7" t="s">
         <v>66</v>
       </c>
@@ -1641,12 +1641,12 @@
       <c r="G26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
@@ -1665,12 +1665,12 @@
       <c r="G27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="7" t="s">
         <v>66</v>
       </c>
@@ -1689,12 +1689,12 @@
       <c r="G28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="7" t="s">
         <v>101</v>
       </c>
@@ -1713,12 +1713,12 @@
       <c r="G29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15" t="s">
@@ -1729,7 +1729,7 @@
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="5" t="s">
         <v>106</v>
       </c>
@@ -1748,12 +1748,12 @@
       <c r="G31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="24" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="5" t="s">
         <v>110</v>
       </c>
@@ -1772,12 +1772,12 @@
       <c r="G32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="24" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="16" t="s">
         <v>13</v>
       </c>
@@ -1796,12 +1796,12 @@
       <c r="G33" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="24" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="7" t="s">
         <v>118</v>
       </c>
@@ -1820,12 +1820,12 @@
       <c r="G34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="24" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="7" t="s">
         <v>118</v>
       </c>
@@ -1844,12 +1844,12 @@
       <c r="G35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="24" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1857,8 +1857,8 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
@@ -1869,7 +1869,7 @@
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="5" t="s">
         <v>126</v>
       </c>
@@ -1888,12 +1888,12 @@
       <c r="G38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="7" t="s">
         <v>130</v>
       </c>
@@ -1912,12 +1912,12 @@
       <c r="G39" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="7" t="s">
         <v>13</v>
       </c>
@@ -1936,12 +1936,12 @@
       <c r="G40" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="7" t="s">
         <v>21</v>
       </c>
@@ -1960,12 +1960,12 @@
       <c r="G41" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H41" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="7" t="s">
         <v>21</v>
       </c>
@@ -1984,12 +1984,12 @@
       <c r="G42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="24" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1997,8 +1997,8 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
@@ -2009,7 +2009,7 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="7" t="s">
         <v>66</v>
       </c>
@@ -2028,12 +2028,12 @@
       <c r="G45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="24" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="7" t="s">
         <v>66</v>
       </c>
@@ -2052,12 +2052,12 @@
       <c r="G46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="24" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="17" t="s">
         <v>152</v>
       </c>
@@ -2076,12 +2076,12 @@
       <c r="G47" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="24" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="18" t="s">
         <v>66</v>
       </c>
@@ -2100,15 +2100,15 @@
       <c r="G48" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="24" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="26" t="s">
         <v>158</v>
       </c>
       <c r="E49" s="20"/>
@@ -2116,7 +2116,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="7" t="s">
         <v>66</v>
       </c>
@@ -2135,12 +2135,12 @@
       <c r="G50" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="7" t="s">
         <v>66</v>
       </c>
@@ -2159,12 +2159,12 @@
       <c r="G51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
+    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2172,8 +2172,8 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
+    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10" t="s">
@@ -2184,7 +2184,7 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="5" t="s">
         <v>167</v>
       </c>
@@ -2203,103 +2203,79 @@
       <c r="G54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="H54" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="A55" s="28"/>
+      <c r="B55" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="28" t="s">
+      <c r="H55" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="7" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>173</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H56" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:A58"/>
+    <mergeCell ref="A1:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/static/Team Information.xlsx
+++ b/src/main/resources/static/Team Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akin Akinbobola\IdeaProjects\dailybot\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CE2806-1EFA-4024-9B5C-19A5042A8BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E3DF22-DC17-42BA-BA42-6242E45801F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="196">
   <si>
     <t xml:space="preserve">SQUAD 1 - BUSINESS SOLUTIONS </t>
   </si>
@@ -575,13 +575,46 @@
   </si>
   <si>
     <t>#iam-team</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Pelumi</t>
+  </si>
+  <si>
+    <t>Aboluwarin</t>
+  </si>
+  <si>
+    <t>pelumi@nomba.com</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>Akinboboa</t>
+  </si>
+  <si>
+    <t>Akin</t>
+  </si>
+  <si>
+    <t>akin.akinbobola@nomba.com</t>
+  </si>
+  <si>
+    <t>Agboola</t>
+  </si>
+  <si>
+    <t>Tobi</t>
+  </si>
+  <si>
+    <t>Agboola.tobi@nomba.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -633,6 +666,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -766,10 +806,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -831,13 +872,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1054,10 +1099,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1115,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
+      <c r="A1" s="28"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
@@ -1102,7 +1147,7 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1171,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1150,7 +1195,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1174,7 +1219,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1243,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
@@ -1222,7 +1267,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
@@ -1246,7 +1291,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1270,7 +1315,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1294,7 +1339,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1318,7 +1363,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1327,7 +1372,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
@@ -1338,7 +1383,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
@@ -1362,7 +1407,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
@@ -1386,7 +1431,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1410,7 +1455,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="7" t="s">
         <v>54</v>
       </c>
@@ -1434,7 +1479,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1458,7 +1503,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
@@ -1482,7 +1527,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="7" t="s">
         <v>66</v>
       </c>
@@ -1506,7 +1551,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1515,7 +1560,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
@@ -1526,7 +1571,7 @@
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="14" t="s">
         <v>72</v>
       </c>
@@ -1550,7 +1595,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="5" t="s">
         <v>76</v>
       </c>
@@ -1574,7 +1619,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="7" t="s">
         <v>81</v>
       </c>
@@ -1598,7 +1643,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="7" t="s">
         <v>85</v>
       </c>
@@ -1622,7 +1667,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="7" t="s">
         <v>66</v>
       </c>
@@ -1646,7 +1691,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
@@ -1670,7 +1715,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="7" t="s">
         <v>66</v>
       </c>
@@ -1694,7 +1739,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="7" t="s">
         <v>101</v>
       </c>
@@ -1718,7 +1763,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15" t="s">
@@ -1729,7 +1774,7 @@
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="5" t="s">
         <v>106</v>
       </c>
@@ -1753,7 +1798,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="5" t="s">
         <v>110</v>
       </c>
@@ -1777,7 +1822,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="16" t="s">
         <v>13</v>
       </c>
@@ -1801,7 +1846,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="7" t="s">
         <v>118</v>
       </c>
@@ -1825,7 +1870,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="7" t="s">
         <v>118</v>
       </c>
@@ -1849,91 +1894,106 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="5" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="5" t="s">
         <v>80</v>
       </c>
       <c r="H40" s="24" t="s">
@@ -1941,45 +2001,45 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>80</v>
@@ -1989,115 +2049,115 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="7" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="18" t="s">
+    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="18" t="s">
+      <c r="C48" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="24" t="s">
@@ -2105,151 +2165,151 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="26" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="29"/>
+      <c r="B50" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="7" t="s">
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="29"/>
+      <c r="B52" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="H52" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="7" t="s">
+    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
+      <c r="B53" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="24" t="s">
+      <c r="G53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10" t="s">
+    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="5" t="s">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="H56" s="25" t="s">
         <v>183</v>
@@ -2257,26 +2317,77 @@
     </row>
     <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
+      <c r="B57" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="30"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:A57"/>
+    <mergeCell ref="A1:A59"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E37" r:id="rId1" xr:uid="{F322DB2F-F529-45BA-A20C-BAF6969369FB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/Team Information.xlsx
+++ b/src/main/resources/static/Team Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akin Akinbobola\IdeaProjects\dailybot\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E3DF22-DC17-42BA-BA42-6242E45801F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88338A94-E79B-49D8-8074-889BFE5F7309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/static/Team Information.xlsx
+++ b/src/main/resources/static/Team Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akin Akinbobola\IdeaProjects\dailybot\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88338A94-E79B-49D8-8074-889BFE5F7309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688817C-A369-456A-91E9-E345448EF6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="197">
   <si>
     <t xml:space="preserve">SQUAD 1 - BUSINESS SOLUTIONS </t>
   </si>
@@ -55,9 +55,6 @@
     <t>Alabi</t>
   </si>
   <si>
-    <t>ronke.alabi@nomba.com</t>
-  </si>
-  <si>
     <t>Jafer Shariff</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Adekunle</t>
   </si>
   <si>
-    <t>oluwadamilola.adekunle.@nomba.com</t>
-  </si>
-  <si>
     <t>Junior Engineer (Backend)</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Makanju</t>
   </si>
   <si>
-    <t>oluwafemi.makanju@nomba.com</t>
-  </si>
-  <si>
     <t>Habibllahi</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>Oyeyemi</t>
   </si>
   <si>
-    <t>clement.oyeyemi@nomba.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Product Manager </t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>Popoola</t>
   </si>
   <si>
-    <t>sam.popoola@nomba.com</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
@@ -529,9 +514,6 @@
     <t>Shooga</t>
   </si>
   <si>
-    <t>victor.shooga@nomba.com</t>
-  </si>
-  <si>
     <t>Ayodeji</t>
   </si>
   <si>
@@ -608,6 +590,27 @@
   </si>
   <si>
     <t>Agboola.tobi@nomba.com</t>
+  </si>
+  <si>
+    <t>#test-group</t>
+  </si>
+  <si>
+    <t>sam@nomba.com</t>
+  </si>
+  <si>
+    <t>clement@nomba.com</t>
+  </si>
+  <si>
+    <t>ronke@nomba.com</t>
+  </si>
+  <si>
+    <t>damilola.adekunle@nomba.com</t>
+  </si>
+  <si>
+    <t>makanju.oluwafemi@nomba.com</t>
+  </si>
+  <si>
+    <t>victor.shoaga@nomba.com</t>
   </si>
 </sst>
 </file>
@@ -810,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -873,6 +876,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1101,8 +1107,8 @@
   </sheetPr>
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1121,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
+      <c r="A1" s="29"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
@@ -1147,7 +1153,7 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1167,11 +1173,11 @@
         <v>7</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1181,189 +1187,189 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="H8" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="F10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1372,29 +1378,29 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>192</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>6</v>
@@ -1403,155 +1409,155 @@
         <v>7</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1560,29 +1566,29 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>6</v>
@@ -1591,166 +1597,166 @@
         <v>7</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H26" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H27" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>6</v>
@@ -1759,33 +1765,33 @@
         <v>7</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>6</v>
@@ -1794,310 +1800,310 @@
         <v>7</v>
       </c>
       <c r="H31" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="D38" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="G38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E41" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F41" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G41" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="F44" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2106,29 +2112,29 @@
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>6</v>
@@ -2137,22 +2143,22 @@
         <v>7</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>6</v>
@@ -2161,22 +2167,22 @@
         <v>7</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>6</v>
@@ -2185,22 +2191,22 @@
         <v>7</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>6</v>
@@ -2209,57 +2215,57 @@
         <v>7</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>6</v>
@@ -2268,11 +2274,11 @@
         <v>7</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2281,90 +2287,90 @@
       <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+      <c r="B58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="F58" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2387,6 +2393,12 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E37" r:id="rId1" xr:uid="{F322DB2F-F529-45BA-A20C-BAF6969369FB}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{7FBD9346-6D6F-4711-A739-57FE75EB1F82}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{57E5AFC7-8CDA-4D63-B11F-9249FB198E29}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{9F76AE46-B270-40B2-A65E-84A85300FBF8}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{E85D3084-D395-4BB9-BFD7-54BF400D4410}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{3CB90A81-2DF4-454C-857E-5984B64BBCE0}"/>
+    <hyperlink ref="E56" r:id="rId7" xr:uid="{B6C8DC94-B968-4739-B6E6-CBFA9C445CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
